--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/33_Gaziantep_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/33_Gaziantep_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3F918B-034C-4E5E-8920-D50763DFBB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3385869-BBFA-4F58-9ACA-5BF9CF60BF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{8A10C934-295F-4803-98A8-5D85EAF86C24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{67AD022C-2443-443D-A382-295361EA72BB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{9E6FAAB7-7CC1-462C-A79B-9CBA0326CF63}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{22B98247-08C9-49C0-B902-704E00A74C01}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{79638065-E5B9-4C56-AE40-6D475C181D79}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A167D8FE-5588-45B8-BEC3-19BC8B505C63}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{39BCB9C0-5AA0-4CB9-B5FB-3FD7CC88AD73}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{9570768E-C769-41BE-B67E-9D124957EBB0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{56BABFDE-15DE-4098-B1A8-72DBE88D295F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{ED8E86B9-1ADE-4472-94D9-DC37C5119A1F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2339FAE1-55FC-4289-9349-9F90BE622EFC}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{038C532B-769B-44D9-8066-5AB815598716}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3F31205E-E26B-4159-91DF-E770B6FF2065}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6413BFCA-834C-449B-BCDD-85EFD1EDF8AD}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{85AD5380-544A-4F52-8F47-D6B577946491}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E327A028-B756-48BC-9929-F6A96ED330FA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD9C22D-E00C-4704-9760-05680B394C6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DFE1A-E4AF-4F9F-BF9D-7E64A7E96866}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2569,18 +2569,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E84A427C-BDD0-41C3-9E24-F9CBB66A5751}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{587C3A1A-D7B2-4343-8021-64C4E7F5735D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C474CAE8-9BD6-46B1-8F79-2693824AC6A5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E70BC689-BEBC-43CA-B73A-CFD14E67A821}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AF22704-5E86-4407-9196-776E15D0704F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A3F27A6C-88A7-4617-89D0-91978CAF233C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19568068-651A-4D35-9B43-1502AF3776DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A9C22A2-0A12-4264-A99B-F2A66D84E322}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D587FA7A-7034-42DE-9ADA-33D29E990D6E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F10A52E4-F530-43B8-B752-AAD24A9AB15E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D41E1DE6-87C4-49D1-943D-C27CF4CBC925}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9CCCEDA-3952-4A96-9152-38C9C915C521}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A025486-3785-4B67-90DF-7C38DCCB0CAB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0EFA00D-C689-4967-A014-4D0F60B4418B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{375225DD-563C-4A67-B220-3F6ECAAAF412}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4519A987-080F-413D-9049-6224A8E968FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF3AC5E4-163C-4945-8022-B3E93A85C6DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D6DBA39D-04CC-49BA-92BA-2E4C3F0D6B89}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D1EBEEE-C910-42AE-AE0E-7ADD2BDADA8B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3983FC3D-63E4-4DC4-B37E-A16D83E724B5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38D01060-0CD1-4E11-BF99-BC4BC3267310}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7122B097-57B2-4EEB-B328-29CC50D37F73}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70B5A807-99E9-4B71-87B0-77F13556EB85}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{12207CD0-1141-49F7-A333-6AD635609BB0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2593,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CC3BF9-9AD5-4F27-888D-7EE21185AF6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3A2CE2-9814-4E37-BA41-3ACFEF451641}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3841,18 +3841,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D28E705F-F621-49D2-8630-88701C6B5CCE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EED2DC7-0A49-43FF-82C6-8FC58390E5A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A6E4942B-F494-4DD4-8749-AEF81DFCACC0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{645CA38F-A934-4FE5-9020-E7347116DD2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{467E22FF-DEDD-40C6-9B00-502FB93E833E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9D902A6-37FC-45F5-9107-0915191F9622}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD200CED-1D80-44AC-ADBB-559D408FF6FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20803C74-A49E-46FF-8FB1-46EDC878C9D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BDB354F-4515-4FB7-92D1-D4055FAD29B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C8EDD72-9C8A-403C-B7E1-F952AF1A97FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7AC3993-D9CE-4978-9213-650E27500B79}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC119B2F-3960-458B-A570-2F5C7822E387}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EDFC725D-6E5E-47CA-BC26-B51CE181472D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{149652FD-0038-4530-B836-5135B83E9BBE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3EB50E9-ADF7-4466-9177-D78FE582FD6F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B92C4221-2794-4A18-A5A7-478E983E7553}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B07C39F7-486A-4ACF-A52A-C19BAD09FEA7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E946B950-28B2-4607-89E9-AD4F034C7546}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{487E0D95-F2C2-4DC6-AABC-2B688F4CE624}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{315FE9D2-2238-4972-BD7D-513A22A0A3C6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9B21CAC-57F8-435C-890F-7CE93157DD97}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2EA0E930-F9FC-4F69-A3EB-5D8153DC2DA1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DB66739-B619-4514-8889-C7DD96959458}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3696BF5-F4F4-4086-9E6D-AF50FF40BF53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3865,7 +3865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB10270F-85F5-4262-A979-80CED2418FD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0CCE7F-EB53-48D1-8B4C-E935A43AD0A4}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5109,18 +5109,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{131AF4AB-5F9D-4EED-804B-571D8BA83AB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7C81D71-7730-4F75-970D-9279980E4941}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDA02020-A66D-4556-A408-CF6DFD44AADB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EB7044CC-4CD0-48A3-8146-7B9BB63D035C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D420FB0-1833-450D-8CB5-D19D7B102262}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2553A58E-3833-45F5-B7DA-7CA9ACB98A03}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{916F5300-19AA-49B7-9062-DEB05809FAA3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF9E56A0-101F-402B-946F-326301B91689}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E9F7F47F-F3E9-41C6-87A0-FAA7AD804DDE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A9A8679-8CCA-47F9-BE2F-AC3296425046}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8567E22-4947-4F08-9415-1CCBB60EC25B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C466E415-AC8C-4730-8B96-DA8B69632526}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E7E143D-5E9D-4BD7-9F2D-5F2C1C5105FA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C2CAE45-2DC4-4401-AFD9-2DA3C636A516}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3B7FDF02-F6C7-4AC1-8F1C-D114784FBF34}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DBFBB7E9-969D-4B3C-9D50-1B9F82EAED7B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F037363-9878-4F6D-B894-5C9342A2D295}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C64F99E6-F780-4A11-98BA-27AFBA65EFAA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D964AFA-7C28-4048-A2FF-AEAC937128EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5D93BC1-2152-4BB6-9B8F-413C842B1FFE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{861D6C77-B786-4D3F-865B-892512839B58}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2370639-65B2-45DA-A32C-3D0587326E98}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DCF9AFA2-BA75-43A4-909F-F1A46E17EE9C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5246379D-BE7D-4202-AF00-FC979A1EC2B5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5133,7 +5133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CD89F3-CFD2-4AB4-B76E-38CD0F75B3D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698322FB-EDD0-4DC5-B048-145FE71AAA84}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6363,18 +6363,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F8B1033-ACD0-49EA-BFD9-393D74D4198E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9ECE367F-5778-4FC5-A5BB-353A0E5D6BF8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F56EE6E6-8908-4E24-8D77-CC927B4CBF50}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{552913C6-B577-4707-BC59-8DF84387D0FC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25B9385C-7804-4576-AF61-65CA3ABCAC24}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2298831-9F46-46F5-9B95-FA1D3EEFCD66}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BA0EA32-F43C-416B-83AB-F8F434A3250B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A3AD386-74B4-43B1-947F-64B659386BEB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC01C089-DE59-4885-A078-F3193EFC197A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{993C3ADF-4A12-4CF4-B87A-D76CF12E7324}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{217F1991-671A-4DD1-9857-A1FF14CB8D87}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F55CBCF7-5D81-4D88-A170-20484674C403}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B98C06D-EEBF-40A1-94E5-958DE542AAE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92E756BB-D4E4-430B-8B04-C827EAC1F325}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A54D6BB8-616C-4158-8AFB-1BCB74A9D8D9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{604DB01A-E4EC-415A-BF00-76F1E9FD1E7A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF7722A6-D964-4529-AE91-89CE1C76F4DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A34BB017-EB1A-4F9E-9F33-22613ED28530}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7C69D87-A4A0-4ADA-B3C8-343B09FB8110}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA2D2147-2971-4291-A6D0-03F23775816A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1ACCD30-2CE4-4904-AAF0-29C70A4D50EA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B2BDF44B-82B5-479E-AC36-46BEE81DAFF8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CE82A8C-3922-4717-A347-2FB79A43BD19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{417BC6CD-6016-40C4-B29D-F6EA3E7DBAE2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6387,7 +6387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E11B358-A079-4F8C-919D-20716C6FD0EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31995B64-E3B3-4CEA-B84C-C23761F99AF3}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7643,18 +7643,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4D4854A-8CC6-48E9-A654-EC95E82A442F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDE9B5EF-9BB9-418D-AE4E-4355CDDBD65A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FB249E49-2FCA-4AF4-865E-544FC75A2176}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3DB0B581-1334-4921-A389-F8680F588CCB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4702A42-0761-4406-BA51-3052EDB36D1F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9ABE130-984C-430B-B7EB-3D6E261B97EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34D34C61-C81B-4E6D-B1B7-0935C7FCB3DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07D654F9-FA9A-4B9F-B329-75223FB3FA8D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D958E6F9-72E8-476D-99C8-22BA0515CA2E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C1962C5-54E4-433B-9FD3-8ECB2B489993}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5065E01-6D15-467A-B6B3-F14508FB012C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA005654-2CB7-45A5-8C8C-733801010D8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1F3D507-371A-4316-B76E-3268B99AF336}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E35D869-DB27-46E3-96F7-6DDA12B394C5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E2EA80CF-1683-4BE4-BD61-3E84BD30D35D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{08196F47-8357-4CDF-BF70-364EE5A1634F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2C3B76E-109B-4003-9DF2-39E09F390854}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9624058-45C6-4739-AF18-D990BA89536C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D29A52A0-5737-4367-A027-BC4A72E83B1E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE6593D8-2919-4B45-9DB2-D2E8BE86B042}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3C62D56-D548-43E0-BBFA-B78C3ED87252}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B80D3CAE-FE21-4176-9679-2CBDA13AB61B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66EB2FC8-98B6-4AA8-A2B7-30E0950BC5E8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BDA2391F-9C98-45FF-AEFD-10E75D79E21D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7667,7 +7667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F201F5DC-B511-4574-9742-3D205F4FA6A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BB9EA-8F19-454A-8CA6-20E9A59A53D2}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8923,18 +8923,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4617A320-4699-4044-AC66-9F6FD755F16A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{086F79AA-D3C7-4509-BFD2-4367BB642218}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{16C589C1-C198-457D-8873-2B030C873BB9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2BBD6F94-D2BE-4CBD-9ED4-08070B5DF4E8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F75E5986-A640-47D6-B92F-E7E745783DFC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8C35222-F965-4CCE-8FD4-15E6A408D192}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11542B34-C744-420D-AB96-EB2C8B60AC9D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CBBA051-A0E6-4062-8D1B-08762827ED6F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30332F8A-4A6D-49F6-895D-BCFC7F17CECE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{485F34AF-6460-4772-9426-2F348E0D7701}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE2B6DDA-494A-4909-8637-CB62349EDD62}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{760F2B52-13B0-4A90-AB6A-3D13523DB987}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{822C6F35-756D-43F0-83B8-3506FA8E2A87}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9ED4363C-4995-484F-969D-3DFA1F0C40D7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1A9DE18C-CD1F-42A9-BAFA-B5747B84480C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E8D1671E-99B1-425D-AE34-F1012B36AB07}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7D904C48-D384-4E20-BE9A-05108F099B0A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DF740A2-9E49-4889-9FCB-4BC78EA3DF9C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BBEC48F1-5D16-49A8-833E-1D1B1CE39037}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF62F31D-03FC-4F3E-B364-BF69DE65F0D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A9C556E-E238-4D63-965A-7D251017B27E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{88B14EC9-1E35-4AAC-BE25-45B3928F9571}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AA5A77D-A2DE-47DA-A84C-5F2CD014CE89}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37E30871-8965-4D98-8B02-3076F050771D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8947,7 +8947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC0A84E-CA95-46D6-9A18-0549E0993FEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFC10D1-02AE-43F1-995D-0BBBBB0F5E87}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10203,18 +10203,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E850BB93-8FA9-42A4-9B16-E25E497E6548}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82FE05DC-7A88-436C-86EB-7DEDDB9E192C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4343F868-03FC-4DEC-BB70-65C3CF4318FC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2C3AC4DC-FD5A-4754-BD5E-2DF4B80C3981}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A1B8F0E-1699-47C2-9CE1-AF8D7ED2F6ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6C4DAC3-8B45-4CD7-961A-E8B259631DF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97F90EED-3AC1-40A7-8121-08A5F6F0F10C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9239A17-E277-4E83-8897-B4A708EEAC9F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{286AFD66-CD64-4E75-BB65-BA1ACEB4EA9C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65456A6A-2E36-47C9-9D81-F675A728B968}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2655B001-8DBC-4A8E-AD3A-D5DF1C6E5CE1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F86E75A0-5DA9-4D4E-BF54-11365D3E815D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3087B29B-806A-46D0-A12E-4D225ED87339}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{190C54CD-0918-4395-B280-D5E93A7AD69C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A08AF362-8D76-4DD0-BBC6-36809D9DCEAC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EB26FDB-0F03-43AD-B9FB-8594ECB03EFD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{752970F0-E809-42A7-8E03-E36F0241E8A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5EF3AE36-02C8-4397-B934-1F6A0A291E05}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3314F2E1-0E96-4027-9562-A76467184FA0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F513BB28-1C33-4E0D-96C2-A95B10EC035E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B9F593A-933C-440F-B4A0-C9088C88E6BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C622AE6-7E00-4BE2-9E74-2E94E759C49C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2167FCF7-B084-4ADF-AFB8-5E01266003DB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C783C7D-A27B-428F-A816-61550F6FBAFC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10227,7 +10227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BA30A8-6A29-4A04-A03E-DA180287D293}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239B4C13-C380-4BDB-B363-9A06696B989A}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11483,18 +11483,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{468AB8BB-4FDA-4750-BE6D-ACE0A4C4B8D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{270D2CDE-315C-45C2-9A0C-6892623200B3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FC4B38E-79CE-4A25-BC19-6D2F7448BA48}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F1B309EE-CBD7-4664-91E0-EC1E8B7583F9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF3D0345-CB32-4E45-A995-1133F90077B5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC27DF2C-2248-4B37-B90F-06E7E26564A5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAA706E6-97AC-451F-B9B3-8B557879C479}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C52D931-23B7-47FD-B94D-182DCCDF07D9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C772C2F-B95E-4A62-A62A-8699894E1C00}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B1ECEF79-1162-4802-9941-61D7CF2D924E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E991C903-CFD1-4326-B88E-50C40AC53062}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{924C546E-A122-442C-9E2D-F5D23FD33D9B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6056E7DE-D241-43A7-B406-78959E26DE6B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1047CFEA-5D3E-434B-9351-D26BA746B858}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{238C14DC-3E75-436C-BC8D-E618B418694C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AE7F3D60-EB4A-412D-8AE3-EBECE597717F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67021AFD-8B91-4632-9F5F-7E7ABAC06371}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F2C9CF16-BBBD-4318-B4A7-0F1EEB20DA3C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9B2889E-234F-481C-A263-DF1721EF6351}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2102F47-CB50-4B68-B390-0DB402AD0DDC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D17C2122-561D-4420-8913-129521DDDB04}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27FA19D0-1562-4974-B626-A3144FA88759}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6F993DA-2137-41C2-A2A9-B7E06B1D8CDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C108E2C-FAED-4A34-8648-8BB82DF6490D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11507,7 +11507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D3EC33-97B7-40DC-807A-078D6D2B29EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1205E398-8ADF-4E8A-9103-0AED30C031AF}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12755,18 +12755,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05D41A19-C037-4270-A861-825B7E0CE5B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00E2546B-35B9-4311-B724-642559E890F9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0EA7DBCC-3735-46F3-BDF0-7BD971C3C222}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{80CCC55A-DF21-4B9A-B69D-893777941643}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B200E8E1-6539-4F22-8920-B73273EFB8CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E304041-2092-4B63-A849-631D3E834A5D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D75D3744-B9A7-4C26-B66D-E5B9D7B5F00B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{224D44FF-6867-4B96-814C-D1856AF2DD58}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31BD65F9-D836-4169-BDDF-6E3CEDE36160}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3095A932-0CAA-46FD-B1EA-C68CE550A9C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8AFA278F-7FD4-4FDA-B3B0-1FB1FD91F3FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE01C83C-4D4C-42CA-890B-6C2D9903BA03}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C85259BB-7260-4BAC-99B8-E73BCA1193A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{335441A4-86FB-4298-90AF-440D30A44C44}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F7F2C1B5-2329-4E14-91BC-31ECFEF4F722}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16FAF939-859E-43C4-96EE-0CA7D6340211}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D434214-8588-4625-AF40-09BA4D91A568}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC81A8A0-1C74-456B-989F-EBFBB1DD3E64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C93FA442-14BA-4477-9F3F-95302E819241}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DCADF582-E5D7-4C39-B4E9-5B773FC4B2E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F14F76BD-02A1-4AD1-BC18-EBD5FD52022A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E2DC7012-9AA4-40EA-99BC-21D4448B4BD1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F086998D-2A1A-43C0-BD18-4F4FCAD2225E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{950C6B9D-3EC6-43DF-AF3B-60D36D61D599}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12779,7 +12779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33281A3C-93E5-4831-85DD-7640F720E5D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D5069D-9D3C-46D5-8F87-810CEAF85300}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14027,18 +14027,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{373C1D53-1DB3-4154-B7A3-C64E99B1DD0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9814BDB5-DF00-4B99-B18A-25FB33CECB60}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2E31A049-9882-4EF6-BF81-D66968CBC3FE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B463839B-2CB3-4E0E-8610-0E409C69F178}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{289B3498-1E5A-42F7-9B06-4013302C5905}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{721527F2-F77F-425C-A1BD-E4F1625100E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC3337E6-0593-436F-9DDC-03A9396D8396}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E16C7DA-3C09-4FD8-8C30-BDF840A877AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA979A8E-07D9-4C0C-966D-2D258AC3DE47}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDDA9609-2A06-47EC-8860-C2667F221E06}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4DB432B-35C1-4306-89A4-ED6742A54393}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1236882E-2987-4AF6-A7AF-26FBA5187C74}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C9062B47-28D4-490F-BC96-1304EFBADC27}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50D633D8-1481-430A-8BC3-2402B20BA251}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7912CF41-B320-4105-ACF3-51897C9BDCBF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4AD0ADE7-9659-4662-B2AC-597CB1119973}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E62773C4-B9D5-44D9-897D-75086533EBEA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C46C5860-09D8-440B-9A73-FEFA32C24F55}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D1CB4B5-D83C-4CA0-942E-07A3B55CDEC9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31CFAC4C-DF99-4ADD-87A9-9939A0577F7A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{173B4174-CF2B-4669-B532-6E91CB417548}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F07FAA9-0D8E-45BF-9B84-94722DD577E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F916484-CA52-4E7C-A350-364850A5A80F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE35A14A-6146-40ED-8B01-C096428E7FCA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14051,7 +14051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BB2E2D-DA61-4942-8451-7B622DC8FDB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2BB78-874A-4A4C-889B-886494571926}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15299,18 +15299,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92F0ACCA-0B08-4DD2-8853-C0F3E78443E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{026AC590-5065-4EFE-BDA6-78BE3586A2AB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B31BFA0-770C-4907-BF51-DAA41B3880BC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{775122D0-78B6-4CD2-9540-E2F3B6874398}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{293B1B20-528C-463C-AFD6-874FC3A72C4D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF2E374E-42A8-4A2A-A48A-502106259E0A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B08119E-C7D4-41FA-885A-18E2A55CD7C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E940A5D-080B-4421-9B7D-A30C655FE429}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{113FE9CF-7A93-4885-8B49-912B455F8AA5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0072EF39-E531-4940-AEF8-D9131E6931AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51E43DF4-B452-48ED-B787-14FA0C0587CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C221AC0-0C49-4BCD-BEB7-672D6E485471}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD302D90-93E0-407E-A599-80A868ACF1E2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB282615-A860-4442-9E22-36D02FF4A18F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4CE120F1-01CC-4DA6-909F-1F4EBE8EF90C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D2C16E4C-3AEC-492D-8620-58BA358B4339}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C042752-1015-49D2-81F2-03AE26F70ABC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6618EA4-FF53-46D1-A987-48CCDC19F898}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E3DADC4-A1B8-499E-ABA2-68B5EE1BD619}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{763FD492-152C-4E08-A374-D19001F56342}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A93D9479-DBCB-463C-BB0A-6285C90DDA98}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6A36D0D-496E-4F31-B1B4-35B9384B0F36}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7615A871-DE4C-4CF0-BE0D-2E3404F0B20F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1EC5621E-2C63-4967-A7EA-07A44F1743BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15323,7 +15323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2D3393-7507-4D69-9753-47D299205B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF94046-6019-4D87-AB1E-C3C1A2367690}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16571,18 +16571,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3355C433-C306-4F76-A032-64AC56FA2296}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{745AF7E9-F3BF-42DE-9DCE-0E55F89DC263}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E04A56AA-E688-45C1-998F-8CE0DDC22EF1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C3549DFB-608C-40E9-9605-758FC8A5DF48}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3EE6DB41-0489-40A5-B715-A01A47DFBCF2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A3398D3-0265-4D70-A2BC-A40CE64E2C7B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3888AB6E-CB23-47F0-8786-599BB5401F3E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C50FFE9A-D988-4A81-90E2-909B233D94DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{498E3431-870C-48DB-9F2F-982BFB0837C3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{16D01C01-F244-459A-A17A-7DD2F445DA45}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C35CF388-5FE7-4B1A-A302-57799771397C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D61A744C-CA70-481C-8E4A-0D911B553059}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E913BA0-B04E-458F-B0FF-7789A8FFD027}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A8D4E0B-9B29-4010-B0F2-80515772B675}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B04695DD-B694-4A12-9788-F605217433C7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3473DA65-6FCB-459F-8B4A-8837C3A4E403}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37564C6C-6FF8-44DF-80D1-56A261DD9683}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F641E5D-C3B0-45DA-8624-5C2947C4AAB1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9A4E7CC-70A7-41D8-B3C1-72AF34883A4B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13F62414-D1B8-4F7C-B89D-5C3A6B940ED1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F313D9AF-AFE6-4788-B9DF-A6D8AEFA68A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{584E8C54-9753-4F9D-A930-0B0AEEB4DF61}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1197CE98-D507-4F18-B63F-82101D24DEA6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DABB04FF-69CE-4F05-931A-7BEDCDF4593B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
